--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.814756</v>
+        <v>82.22439799999999</v>
       </c>
       <c r="H2">
-        <v>305.444268</v>
+        <v>246.673194</v>
       </c>
       <c r="I2">
-        <v>0.2429953264021571</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="J2">
-        <v>0.2429953264021571</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.193104333333333</v>
+        <v>0.3893403333333333</v>
       </c>
       <c r="N2">
-        <v>3.579313</v>
+        <v>1.168021</v>
       </c>
       <c r="O2">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="P2">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="Q2">
-        <v>121.475626580876</v>
+        <v>32.01327452545267</v>
       </c>
       <c r="R2">
-        <v>1093.280639227884</v>
+        <v>288.119470729074</v>
       </c>
       <c r="S2">
-        <v>0.009436230793265509</v>
+        <v>0.002210019630224437</v>
       </c>
       <c r="T2">
-        <v>0.009436230793265509</v>
+        <v>0.002210019630224437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.814756</v>
+        <v>82.22439799999999</v>
       </c>
       <c r="H3">
-        <v>305.444268</v>
+        <v>246.673194</v>
       </c>
       <c r="I3">
-        <v>0.2429953264021571</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="J3">
-        <v>0.2429953264021571</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.530898</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N3">
-        <v>88.59269400000001</v>
+        <v>3.579313</v>
       </c>
       <c r="O3">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="P3">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="Q3">
-        <v>3006.681174330888</v>
+        <v>98.10228555952466</v>
       </c>
       <c r="R3">
-        <v>27060.13056897799</v>
+        <v>882.9205700357219</v>
       </c>
       <c r="S3">
-        <v>0.2335590956088916</v>
+        <v>0.006772439872842629</v>
       </c>
       <c r="T3">
-        <v>0.2335590956088916</v>
+        <v>0.006772439872842628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.930687</v>
+        <v>82.22439799999999</v>
       </c>
       <c r="H4">
-        <v>371.792061</v>
+        <v>246.673194</v>
       </c>
       <c r="I4">
-        <v>0.2957781260980341</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="J4">
-        <v>0.2957781260980341</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.193104333333333</v>
+        <v>0.087271</v>
       </c>
       <c r="N4">
-        <v>3.579313</v>
+        <v>0.261813</v>
       </c>
       <c r="O4">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094877</v>
       </c>
       <c r="P4">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094878</v>
       </c>
       <c r="Q4">
-        <v>147.862239692677</v>
+        <v>7.175805437857999</v>
       </c>
       <c r="R4">
-        <v>1330.760157234093</v>
+        <v>64.582248940722</v>
       </c>
       <c r="S4">
-        <v>0.01148594379482626</v>
+        <v>0.000495377967902932</v>
       </c>
       <c r="T4">
-        <v>0.01148594379482626</v>
+        <v>0.000495377967902932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.930687</v>
+        <v>82.22439799999999</v>
       </c>
       <c r="H5">
-        <v>371.792061</v>
+        <v>246.673194</v>
       </c>
       <c r="I5">
-        <v>0.2957781260980341</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="J5">
-        <v>0.2957781260980341</v>
+        <v>0.16435464576988</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.530898</v>
+        <v>27.28472966666666</v>
       </c>
       <c r="N5">
-        <v>88.59269400000001</v>
+        <v>81.85418899999999</v>
       </c>
       <c r="O5">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790893</v>
       </c>
       <c r="P5">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790894</v>
       </c>
       <c r="Q5">
-        <v>3659.784476866926</v>
+        <v>2243.470471434407</v>
       </c>
       <c r="R5">
-        <v>32938.06029180234</v>
+        <v>20191.23424290966</v>
       </c>
       <c r="S5">
-        <v>0.2842921823032078</v>
+        <v>0.15487680829891</v>
       </c>
       <c r="T5">
-        <v>0.2842921823032079</v>
+        <v>0.15487680829891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.499949</v>
+        <v>123.930687</v>
       </c>
       <c r="H6">
-        <v>232.499847</v>
+        <v>371.792061</v>
       </c>
       <c r="I6">
-        <v>0.1849645978958643</v>
+        <v>0.2477194683979672</v>
       </c>
       <c r="J6">
-        <v>0.1849645978958643</v>
+        <v>0.2477194683979671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.193104333333333</v>
+        <v>0.3893403333333333</v>
       </c>
       <c r="N6">
-        <v>3.579313</v>
+        <v>1.168021</v>
       </c>
       <c r="O6">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="P6">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="Q6">
-        <v>92.46552498501234</v>
+        <v>48.251214986809</v>
       </c>
       <c r="R6">
-        <v>832.1897248651111</v>
+        <v>434.260934881281</v>
       </c>
       <c r="S6">
-        <v>0.007182725117273832</v>
+        <v>0.003330997340439032</v>
       </c>
       <c r="T6">
-        <v>0.007182725117273833</v>
+        <v>0.003330997340439032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.499949</v>
+        <v>123.930687</v>
       </c>
       <c r="H7">
-        <v>232.499847</v>
+        <v>371.792061</v>
       </c>
       <c r="I7">
-        <v>0.1849645978958643</v>
+        <v>0.2477194683979672</v>
       </c>
       <c r="J7">
-        <v>0.1849645978958643</v>
+        <v>0.2477194683979671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.530898</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N7">
-        <v>88.59269400000001</v>
+        <v>3.579313</v>
       </c>
       <c r="O7">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="P7">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="Q7">
-        <v>2288.643088924202</v>
+        <v>147.862239692677</v>
       </c>
       <c r="R7">
-        <v>20597.78780031782</v>
+        <v>1330.760157234093</v>
       </c>
       <c r="S7">
-        <v>0.1777818727785904</v>
+        <v>0.01020759222959078</v>
       </c>
       <c r="T7">
-        <v>0.1777818727785904</v>
+        <v>0.01020759222959078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>115.753432</v>
+        <v>123.930687</v>
       </c>
       <c r="H8">
-        <v>347.260296</v>
+        <v>371.792061</v>
       </c>
       <c r="I8">
-        <v>0.2762619496039445</v>
+        <v>0.2477194683979672</v>
       </c>
       <c r="J8">
-        <v>0.2762619496039445</v>
+        <v>0.2477194683979671</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.193104333333333</v>
+        <v>0.087271</v>
       </c>
       <c r="N8">
-        <v>3.579313</v>
+        <v>0.261813</v>
       </c>
       <c r="O8">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094877</v>
       </c>
       <c r="P8">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094878</v>
       </c>
       <c r="Q8">
-        <v>138.1059213174053</v>
+        <v>10.815554985177</v>
       </c>
       <c r="R8">
-        <v>1242.953291856648</v>
+        <v>97.339994866593</v>
       </c>
       <c r="S8">
-        <v>0.01072807265250005</v>
+        <v>0.0007466461704818357</v>
       </c>
       <c r="T8">
-        <v>0.01072807265250005</v>
+        <v>0.0007466461704818357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>115.753432</v>
+        <v>123.930687</v>
       </c>
       <c r="H9">
-        <v>347.260296</v>
+        <v>371.792061</v>
       </c>
       <c r="I9">
-        <v>0.2762619496039445</v>
+        <v>0.2477194683979672</v>
       </c>
       <c r="J9">
-        <v>0.2762619496039445</v>
+        <v>0.2477194683979671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,524 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.530898</v>
+        <v>27.28472966666666</v>
       </c>
       <c r="N9">
-        <v>88.59269400000001</v>
+        <v>81.85418899999999</v>
       </c>
       <c r="O9">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790893</v>
       </c>
       <c r="P9">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790894</v>
       </c>
       <c r="Q9">
-        <v>3418.302793541937</v>
+        <v>3381.41529219928</v>
       </c>
       <c r="R9">
-        <v>30764.72514187743</v>
+        <v>30432.73762979353</v>
       </c>
       <c r="S9">
-        <v>0.2655338769514445</v>
+        <v>0.2334342326574555</v>
       </c>
       <c r="T9">
-        <v>0.2655338769514445</v>
+        <v>0.2334342326574555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>183.1085766666667</v>
+      </c>
+      <c r="H10">
+        <v>549.32573</v>
+      </c>
+      <c r="I10">
+        <v>0.3660074866766057</v>
+      </c>
+      <c r="J10">
+        <v>0.3660074866766056</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3893403333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.168021</v>
+      </c>
+      <c r="O10">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="P10">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="Q10">
+        <v>71.29155427559222</v>
+      </c>
+      <c r="R10">
+        <v>641.62398848033</v>
+      </c>
+      <c r="S10">
+        <v>0.004921575088890157</v>
+      </c>
+      <c r="T10">
+        <v>0.004921575088890157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>183.1085766666667</v>
+      </c>
+      <c r="H11">
+        <v>549.32573</v>
+      </c>
+      <c r="I11">
+        <v>0.3660074866766057</v>
+      </c>
+      <c r="J11">
+        <v>0.3660074866766056</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.193104333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.579313</v>
+      </c>
+      <c r="O11">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="P11">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="Q11">
+        <v>218.4676362914989</v>
+      </c>
+      <c r="R11">
+        <v>1966.20872662349</v>
+      </c>
+      <c r="S11">
+        <v>0.01508179878284782</v>
+      </c>
+      <c r="T11">
+        <v>0.01508179878284782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>183.1085766666667</v>
+      </c>
+      <c r="H12">
+        <v>549.32573</v>
+      </c>
+      <c r="I12">
+        <v>0.3660074866766057</v>
+      </c>
+      <c r="J12">
+        <v>0.3660074866766056</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.087271</v>
+      </c>
+      <c r="N12">
+        <v>0.261813</v>
+      </c>
+      <c r="O12">
+        <v>0.003014079496094877</v>
+      </c>
+      <c r="P12">
+        <v>0.003014079496094878</v>
+      </c>
+      <c r="Q12">
+        <v>15.98006859427667</v>
+      </c>
+      <c r="R12">
+        <v>143.82061734849</v>
+      </c>
+      <c r="S12">
+        <v>0.001103175661009176</v>
+      </c>
+      <c r="T12">
+        <v>0.001103175661009176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>183.1085766666667</v>
+      </c>
+      <c r="H13">
+        <v>549.32573</v>
+      </c>
+      <c r="I13">
+        <v>0.3660074866766057</v>
+      </c>
+      <c r="J13">
+        <v>0.3660074866766056</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.28472966666666</v>
+      </c>
+      <c r="N13">
+        <v>81.85418899999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9423330114790893</v>
+      </c>
+      <c r="P13">
+        <v>0.9423330114790894</v>
+      </c>
+      <c r="Q13">
+        <v>4996.068013998107</v>
+      </c>
+      <c r="R13">
+        <v>44964.61212598297</v>
+      </c>
+      <c r="S13">
+        <v>0.3449009371438584</v>
+      </c>
+      <c r="T13">
+        <v>0.3449009371438584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>111.0227623333333</v>
+      </c>
+      <c r="H14">
+        <v>333.0682870000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2219183991555473</v>
+      </c>
+      <c r="J14">
+        <v>0.2219183991555472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3893403333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.168021</v>
+      </c>
+      <c r="O14">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="P14">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="Q14">
+        <v>43.22563929444745</v>
+      </c>
+      <c r="R14">
+        <v>389.0307536500271</v>
+      </c>
+      <c r="S14">
+        <v>0.002984059356182929</v>
+      </c>
+      <c r="T14">
+        <v>0.002984059356182929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>111.0227623333333</v>
+      </c>
+      <c r="H15">
+        <v>333.0682870000001</v>
+      </c>
+      <c r="I15">
+        <v>0.2219183991555473</v>
+      </c>
+      <c r="J15">
+        <v>0.2219183991555472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.193104333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.579313</v>
+      </c>
+      <c r="O15">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="P15">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="Q15">
+        <v>132.4617388385368</v>
+      </c>
+      <c r="R15">
+        <v>1192.155649546831</v>
+      </c>
+      <c r="S15">
+        <v>0.009144426723797937</v>
+      </c>
+      <c r="T15">
+        <v>0.009144426723797935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>111.0227623333333</v>
+      </c>
+      <c r="H16">
+        <v>333.0682870000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2219183991555473</v>
+      </c>
+      <c r="J16">
+        <v>0.2219183991555472</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.087271</v>
+      </c>
+      <c r="N16">
+        <v>0.261813</v>
+      </c>
+      <c r="O16">
+        <v>0.003014079496094877</v>
+      </c>
+      <c r="P16">
+        <v>0.003014079496094878</v>
+      </c>
+      <c r="Q16">
+        <v>9.689067491592334</v>
+      </c>
+      <c r="R16">
+        <v>87.20160742433102</v>
+      </c>
+      <c r="S16">
+        <v>0.0006688796967009338</v>
+      </c>
+      <c r="T16">
+        <v>0.0006688796967009338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>111.0227623333333</v>
+      </c>
+      <c r="H17">
+        <v>333.0682870000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2219183991555473</v>
+      </c>
+      <c r="J17">
+        <v>0.2219183991555472</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.28472966666666</v>
+      </c>
+      <c r="N17">
+        <v>81.85418899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.9423330114790893</v>
+      </c>
+      <c r="P17">
+        <v>0.9423330114790894</v>
+      </c>
+      <c r="Q17">
+        <v>3029.226057111583</v>
+      </c>
+      <c r="R17">
+        <v>27263.03451400424</v>
+      </c>
+      <c r="S17">
+        <v>0.2091210333788655</v>
+      </c>
+      <c r="T17">
+        <v>0.2091210333788655</v>
       </c>
     </row>
   </sheetData>
